--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N2">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q2">
-        <v>11291.42930506301</v>
+        <v>7220.842919873568</v>
       </c>
       <c r="R2">
-        <v>101622.8637455671</v>
+        <v>64987.58627886211</v>
       </c>
       <c r="S2">
-        <v>0.5550671168845248</v>
+        <v>0.4835971956576857</v>
       </c>
       <c r="T2">
-        <v>0.5550671168845248</v>
+        <v>0.4835971956576856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q3">
-        <v>3553.395519283695</v>
+        <v>1289.941523829765</v>
       </c>
       <c r="R3">
-        <v>31980.55967355326</v>
+        <v>11609.47371446788</v>
       </c>
       <c r="S3">
-        <v>0.1746787720802352</v>
+        <v>0.08639048244209674</v>
       </c>
       <c r="T3">
-        <v>0.1746787720802352</v>
+        <v>0.08639048244209672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q4">
-        <v>1674.929288342543</v>
+        <v>608.02711850867</v>
       </c>
       <c r="R4">
-        <v>15074.36359508289</v>
+        <v>5472.24406657803</v>
       </c>
       <c r="S4">
-        <v>0.08233662417289134</v>
+        <v>0.04072103667915886</v>
       </c>
       <c r="T4">
-        <v>0.08233662417289134</v>
+        <v>0.04072103667915885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N5">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O5">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P5">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q5">
-        <v>1946.192629788986</v>
+        <v>3428.454013805953</v>
       </c>
       <c r="R5">
-        <v>17515.73366810087</v>
+        <v>30856.08612425358</v>
       </c>
       <c r="S5">
-        <v>0.09567146042658196</v>
+        <v>0.2296118008542589</v>
       </c>
       <c r="T5">
-        <v>0.09567146042658196</v>
+        <v>0.2296118008542589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q6">
         <v>612.4638416904601</v>
@@ -818,10 +818,10 @@
         <v>5512.174575214141</v>
       </c>
       <c r="S6">
-        <v>0.03010766215847522</v>
+        <v>0.04101817468817411</v>
       </c>
       <c r="T6">
-        <v>0.03010766215847522</v>
+        <v>0.04101817468817411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P7">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q7">
         <v>288.6910902349912</v>
@@ -880,10 +880,10 @@
         <v>2598.21981211492</v>
       </c>
       <c r="S7">
-        <v>0.01419155421317076</v>
+        <v>0.0193343357829817</v>
       </c>
       <c r="T7">
-        <v>0.01419155421317076</v>
+        <v>0.0193343357829817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N8">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O8">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P8">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q8">
-        <v>666.6662654149961</v>
+        <v>1174.413364096896</v>
       </c>
       <c r="R8">
-        <v>5999.996388734965</v>
+        <v>10569.72027687207</v>
       </c>
       <c r="S8">
-        <v>0.03277215947339365</v>
+        <v>0.07865328407256253</v>
       </c>
       <c r="T8">
-        <v>0.03277215947339364</v>
+        <v>0.07865328407256252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.773605</v>
       </c>
       <c r="O9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q9">
         <v>209.79885330558</v>
@@ -1004,10 +1004,10 @@
         <v>1888.18967975022</v>
       </c>
       <c r="S9">
-        <v>0.01031334842417081</v>
+        <v>0.01405073316738943</v>
       </c>
       <c r="T9">
-        <v>0.01031334842417081</v>
+        <v>0.01405073316738943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>50.80019</v>
       </c>
       <c r="O10">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P10">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q10">
         <v>98.89083333257335</v>
@@ -1066,10 +1066,10 @@
         <v>890.0174999931601</v>
       </c>
       <c r="S10">
-        <v>0.004861302166556251</v>
+        <v>0.006622956655692134</v>
       </c>
       <c r="T10">
-        <v>0.00486130216655625</v>
+        <v>0.006622956655692131</v>
       </c>
     </row>
   </sheetData>
